--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="122">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,240 +46,237 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>fell</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>thought</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>though</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>sound</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>could</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -292,72 +289,75 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>expansion</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>fun</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>fun</t>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>cute</t>
   </si>
   <si>
@@ -373,13 +373,10 @@
     <t>well</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>good</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -740,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +745,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -809,13 +806,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -827,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3">
-        <v>0.9076923076923077</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -859,13 +856,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -877,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +906,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -927,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -951,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -959,13 +956,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7150537634408602</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +974,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>0.8518518518518519</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1001,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,19 +1024,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1051,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1056,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6875</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1101,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1106,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,19 +1124,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1151,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1159,13 +1156,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1177,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K10">
-        <v>0.7169811320754716</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1206,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,19 +1224,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1251,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1256,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6551724137931034</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1277,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12">
-        <v>0.5609756097560976</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L12">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>391</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1306,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6545454545454545</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13">
-        <v>0.5186721991701245</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L13">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M13">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,13 +1356,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6218487394957983</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C14">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1377,19 +1374,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14">
-        <v>0.4811475409836066</v>
+        <v>0.4721311475409836</v>
       </c>
       <c r="L14">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="M14">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1406,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5952380952380952</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15">
-        <v>0.3829787234042553</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1456,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5922330097087378</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C16">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16">
-        <v>0.3669724770642202</v>
+        <v>0.382262996941896</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1506,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,19 +1524,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K17">
-        <v>0.3554216867469879</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L17">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -1577,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K18">
-        <v>0.3396226415094339</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L18">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1606,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5555555555555556</v>
+        <v>0.5246376811594203</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1624,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K19">
-        <v>0.3333333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1656,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5101449275362319</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20">
-        <v>0.325</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L20">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1701,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1709,13 +1706,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,19 +1724,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K21">
-        <v>0.2587412587412588</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1751,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>106</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1756,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4578313253012048</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,31 +1774,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22">
-        <v>0.2578125</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1809,13 +1806,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.4566929133858268</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1827,19 +1824,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>69</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23">
+        <v>0.234375</v>
+      </c>
+      <c r="L23">
         <v>30</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K23">
-        <v>0.2311827956989247</v>
-      </c>
-      <c r="L23">
-        <v>43</v>
-      </c>
       <c r="M23">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1851,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,13 +1856,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4170616113744076</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24">
-        <v>0.2142857142857143</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1901,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,13 +1906,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1927,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25">
-        <v>0.2</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1951,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1959,13 +1956,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3968253968253968</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K26">
-        <v>0.1967871485943775</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2001,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2009,13 +2006,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3937007874015748</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2027,19 +2024,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K27">
-        <v>0.1709027169149868</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L27">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2051,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>946</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,13 +2056,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3833333333333334</v>
+        <v>0.3984375</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2077,19 +2074,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28">
-        <v>0.1283422459893048</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2101,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2109,7 +2106,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3809523809523809</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
         <v>24</v>
@@ -2127,31 +2124,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29">
-        <v>0.1282051282051282</v>
+        <v>0.1747146619841967</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>102</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2159,13 +2156,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3703703703703703</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2177,19 +2174,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K30">
-        <v>0.1103896103896104</v>
+        <v>0.168</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2201,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>137</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2209,13 +2206,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3578947368421053</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2227,31 +2224,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K31">
-        <v>0.1001951854261549</v>
+        <v>0.1002785515320334</v>
       </c>
       <c r="L31">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1383</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2259,13 +2256,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3469387755102041</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2277,31 +2274,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K32">
-        <v>0.08356545961002786</v>
+        <v>0.09946236559139784</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2309,13 +2306,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.34375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2327,31 +2324,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33">
-        <v>0.08171206225680934</v>
+        <v>0.09935064935064936</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>236</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2359,13 +2356,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.34375</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2377,31 +2374,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34">
-        <v>0.06501547987616099</v>
+        <v>0.07003891050583658</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>302</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2409,13 +2406,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3272727272727273</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2430,16 +2427,16 @@
         <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K35">
-        <v>0.06206896551724138</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2451,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>272</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2459,13 +2456,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3163265306122449</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2477,31 +2474,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K36">
-        <v>0.0507343124165554</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>711</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2509,13 +2506,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3118811881188119</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2527,31 +2524,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K37">
-        <v>0.04358974358974359</v>
+        <v>0.04933333333333333</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="O37">
-        <v>0.26</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>373</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2559,13 +2556,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.303370786516854</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2577,31 +2574,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K38">
-        <v>0.03423680456490728</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>677</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2609,43 +2606,43 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2758620689655172</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="C39">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>66</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="L39">
         <v>16</v>
-      </c>
-      <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>42</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K39">
-        <v>0.03420523138832998</v>
-      </c>
-      <c r="L39">
-        <v>17</v>
       </c>
       <c r="M39">
         <v>20</v>
       </c>
       <c r="N39">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="O39">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
@@ -2659,13 +2656,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2678571428571428</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2677,31 +2674,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K40">
-        <v>0.02669039145907473</v>
+        <v>0.02567760342368046</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="O40">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>547</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2709,13 +2706,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2537313432835821</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2727,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2735,13 +2732,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2459016393442623</v>
+        <v>0.2210144927536232</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2753,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>46</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2761,13 +2758,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2422680412371134</v>
+        <v>0.215</v>
       </c>
       <c r="C43">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2779,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2787,13 +2784,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2297297297297297</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2805,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2813,13 +2810,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2136752136752137</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2831,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>92</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2839,13 +2836,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2071428571428572</v>
+        <v>0.185459940652819</v>
       </c>
       <c r="C46">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="D46">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2857,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>111</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2865,13 +2862,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2065217391304348</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2883,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>219</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2891,25 +2888,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2027027027027027</v>
+        <v>0.170028818443804</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2917,25 +2914,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.189873417721519</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>256</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2943,13 +2940,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1855670103092784</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2961,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2969,13 +2966,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1795252225519288</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C51">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D51">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2987,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>553</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2995,25 +2992,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1775700934579439</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>88</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3021,25 +3018,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1666666666666667</v>
+        <v>0.1545253863134658</v>
       </c>
       <c r="C53">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3047,13 +3044,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.165</v>
+        <v>0.15</v>
       </c>
       <c r="C54">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3065,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3073,13 +3070,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1588785046728972</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C55">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3091,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3099,13 +3096,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1525423728813559</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3117,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3125,13 +3122,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1475770925110132</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C57">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3143,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>387</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3151,13 +3148,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1464968152866242</v>
+        <v>0.125</v>
       </c>
       <c r="C58">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3169,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3177,13 +3174,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1371428571428571</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3195,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>151</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3203,13 +3200,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1338582677165354</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E60">
         <v>0.06</v>
@@ -3221,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3229,25 +3226,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.129746835443038</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C61">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>275</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3255,25 +3252,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1174089068825911</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>218</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3281,25 +3278,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1161048689138577</v>
+        <v>0.1</v>
       </c>
       <c r="C63">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D63">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>236</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3307,25 +3304,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.106951871657754</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3333,13 +3330,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1047120418848168</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3351,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3359,13 +3356,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1038251366120219</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3377,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>164</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3385,25 +3382,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.08928571428571429</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C67">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>408</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3411,25 +3408,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08791208791208792</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="C68">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D68">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E68">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F68">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>332</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3437,25 +3434,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08771929824561403</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E69">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F69">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>156</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3463,25 +3460,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.07909604519774012</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="C70">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D70">
         <v>29</v>
       </c>
       <c r="E70">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F70">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>326</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3489,25 +3486,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.078125</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="C71">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D71">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>177</v>
+        <v>561</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3515,25 +3512,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07425742574257425</v>
+        <v>0.07323943661971831</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>561</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3541,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06329113924050633</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C73">
         <v>20</v>
       </c>
       <c r="D73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3567,25 +3564,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.04615384615384616</v>
+        <v>0.05841121495327103</v>
       </c>
       <c r="C74">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E74">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="F74">
-        <v>0.72</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>744</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3593,25 +3590,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04439252336448598</v>
+        <v>0.05216284987277354</v>
       </c>
       <c r="C75">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E75">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="F75">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>409</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3619,51 +3616,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.03993855606758832</v>
+        <v>0.04287901990811639</v>
       </c>
       <c r="C76">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D76">
         <v>30</v>
       </c>
       <c r="E76">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F76">
-        <v>0.87</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
         <v>625</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.0218978102189781</v>
-      </c>
-      <c r="C77">
-        <v>15</v>
-      </c>
-      <c r="D77">
-        <v>22</v>
-      </c>
-      <c r="E77">
-        <v>0.32</v>
-      </c>
-      <c r="F77">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>670</v>
       </c>
     </row>
   </sheetData>
